--- a/Code/Results/Cases/Case_4_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.564844953401177</v>
+        <v>1.628473391421153</v>
       </c>
       <c r="C2">
-        <v>1.347314232220583</v>
+        <v>0.5925921763866313</v>
       </c>
       <c r="D2">
-        <v>0.5633611216882457</v>
+        <v>0.6605252660765188</v>
       </c>
       <c r="E2">
-        <v>0.2521695872929115</v>
+        <v>0.2694002117863263</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.628722020468871</v>
+        <v>1.618817807492434</v>
       </c>
       <c r="H2">
-        <v>0.9283498305550495</v>
+        <v>1.3914997392651</v>
       </c>
       <c r="I2">
-        <v>0.65205429965674</v>
+        <v>0.9754574343271756</v>
       </c>
       <c r="J2">
-        <v>0.1498834981993298</v>
+        <v>0.1402073362942957</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.604291250422166</v>
+        <v>1.314684938046567</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.084338984802741</v>
+        <v>1.504356375888165</v>
       </c>
       <c r="C3">
-        <v>1.163759572232209</v>
+        <v>0.5463184728849342</v>
       </c>
       <c r="D3">
-        <v>0.5055061288051945</v>
+        <v>0.6507702766687657</v>
       </c>
       <c r="E3">
-        <v>0.2249274840539996</v>
+        <v>0.2645580228302933</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.464635622223483</v>
+        <v>1.593077908450823</v>
       </c>
       <c r="H3">
-        <v>0.8617081583238644</v>
+        <v>1.386880558471887</v>
       </c>
       <c r="I3">
-        <v>0.6124432939001778</v>
+        <v>0.9749819146558849</v>
       </c>
       <c r="J3">
-        <v>0.1326785654378924</v>
+        <v>0.1369585051028821</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6562058103801238</v>
+        <v>1.334350938428487</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.793032666598378</v>
+        <v>1.428850933360536</v>
       </c>
       <c r="C4">
-        <v>1.05282800411851</v>
+        <v>0.5181917515143937</v>
       </c>
       <c r="D4">
-        <v>0.4710291209905506</v>
+        <v>0.6451483806956162</v>
       </c>
       <c r="E4">
-        <v>0.2086828501677402</v>
+        <v>0.2617418316259048</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.368378818480096</v>
+        <v>1.578514329356182</v>
       </c>
       <c r="H4">
-        <v>0.8231832908424224</v>
+        <v>1.384899098715238</v>
       </c>
       <c r="I4">
-        <v>0.5901518812963076</v>
+        <v>0.9753654369932434</v>
       </c>
       <c r="J4">
-        <v>0.1224114904921976</v>
+        <v>0.1350503228013196</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.689494273791375</v>
+        <v>1.347009504765835</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.675120908111694</v>
+        <v>1.398257842371095</v>
       </c>
       <c r="C5">
-        <v>1.008003113521909</v>
+        <v>0.5068009986992479</v>
       </c>
       <c r="D5">
-        <v>0.4572155563521392</v>
+        <v>0.6429496166272202</v>
       </c>
       <c r="E5">
-        <v>0.202171319719497</v>
+        <v>0.2606335290419679</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.330168677636976</v>
+        <v>1.572889633524113</v>
       </c>
       <c r="H5">
-        <v>0.8080326154079387</v>
+        <v>1.384305833629156</v>
       </c>
       <c r="I5">
-        <v>0.581534302456248</v>
+        <v>0.9756908265652768</v>
       </c>
       <c r="J5">
-        <v>0.1182938311361141</v>
+        <v>0.134294394602442</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7033997519634774</v>
+        <v>1.352314462717342</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.655586104604424</v>
+        <v>1.393188490800583</v>
       </c>
       <c r="C6">
-        <v>1.000581174781871</v>
+        <v>0.504913848392448</v>
       </c>
       <c r="D6">
-        <v>0.4549353394716604</v>
+        <v>0.6425900750007543</v>
       </c>
       <c r="E6">
-        <v>0.2010962683359736</v>
+        <v>0.2604518668217537</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.323882071137376</v>
+        <v>1.571974328982606</v>
       </c>
       <c r="H6">
-        <v>0.8055485140609733</v>
+        <v>1.384220238026984</v>
       </c>
       <c r="I6">
-        <v>0.5801303080777132</v>
+        <v>0.9757550485303526</v>
       </c>
       <c r="J6">
-        <v>0.1176138675931782</v>
+        <v>0.1341701790890042</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7057288746082135</v>
+        <v>1.353204187278902</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.791439411699685</v>
+        <v>1.428437632653356</v>
       </c>
       <c r="C7">
-        <v>1.052222020432737</v>
+        <v>0.5180378447853968</v>
       </c>
       <c r="D7">
-        <v>0.4708419044427217</v>
+        <v>0.6451183543991306</v>
       </c>
       <c r="E7">
-        <v>0.2085946112192829</v>
+        <v>0.2617267256586473</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.367859536506188</v>
+        <v>1.578437219798644</v>
       </c>
       <c r="H7">
-        <v>0.8229768097398278</v>
+        <v>1.384890231451749</v>
       </c>
       <c r="I7">
-        <v>0.590033828923751</v>
+        <v>0.9753691416388719</v>
       </c>
       <c r="J7">
-        <v>0.1223557005675104</v>
+        <v>0.1350400404824512</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6896804496112159</v>
+        <v>1.347080456500355</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.398305388323706</v>
+        <v>1.585531447687913</v>
       </c>
       <c r="C8">
-        <v>1.283615893016247</v>
+        <v>0.5765773148849576</v>
       </c>
       <c r="D8">
-        <v>0.5431785740437078</v>
+        <v>0.6570852661189406</v>
       </c>
       <c r="E8">
-        <v>0.2426682800581759</v>
+        <v>0.2676979642985842</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.57114040776645</v>
+        <v>1.609683976118077</v>
       </c>
       <c r="H8">
-        <v>0.9048414463412087</v>
+        <v>1.389729195255029</v>
       </c>
       <c r="I8">
-        <v>0.6379473682478292</v>
+        <v>0.9751528158736349</v>
       </c>
       <c r="J8">
-        <v>0.1438843431382608</v>
+        <v>0.1390690959313972</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6218886945146291</v>
+        <v>1.321344505696145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.624953192516898</v>
+        <v>1.899222039286201</v>
       </c>
       <c r="C9">
-        <v>1.754717691484302</v>
+        <v>0.693676002336133</v>
       </c>
       <c r="D9">
-        <v>0.6946904603503867</v>
+        <v>0.6834838731692514</v>
       </c>
       <c r="E9">
-        <v>0.3139646454301541</v>
+        <v>0.2806602570430812</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.011171961298032</v>
+        <v>1.680897328382883</v>
       </c>
       <c r="H9">
-        <v>1.087045862528925</v>
+        <v>1.406036198120773</v>
       </c>
       <c r="I9">
-        <v>0.750220857320457</v>
+        <v>0.9801240946056708</v>
       </c>
       <c r="J9">
-        <v>0.1888800458901017</v>
+        <v>0.1476628058938587</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5009095243305928</v>
+        <v>1.275517280668474</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.559553488254949</v>
+        <v>2.133222665511539</v>
       </c>
       <c r="C10">
-        <v>2.116601661253981</v>
+        <v>0.7811740183080929</v>
       </c>
       <c r="D10">
-        <v>0.8140382242530109</v>
+        <v>0.7046886589652388</v>
       </c>
       <c r="E10">
-        <v>0.3701062097978962</v>
+        <v>0.2909592655093363</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.368744308644665</v>
+        <v>1.739414207452</v>
       </c>
       <c r="H10">
-        <v>1.23833368861537</v>
+        <v>1.422226896527576</v>
       </c>
       <c r="I10">
-        <v>0.8473407613511341</v>
+        <v>0.9871175613414493</v>
       </c>
       <c r="J10">
-        <v>0.2243006658880802</v>
+        <v>0.1544074671669904</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4204901780420265</v>
+        <v>1.244690768785377</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.994859779303113</v>
+        <v>2.240466272806088</v>
       </c>
       <c r="C11">
-        <v>2.286016247718806</v>
+        <v>0.82131148431273</v>
       </c>
       <c r="D11">
-        <v>0.8706359593212198</v>
+        <v>0.7147334137535779</v>
       </c>
       <c r="E11">
-        <v>0.3967322531497288</v>
+        <v>0.2958156818574977</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.541214645515595</v>
+        <v>1.767411088881744</v>
       </c>
       <c r="H11">
-        <v>1.312040203405417</v>
+        <v>1.430518622586789</v>
       </c>
       <c r="I11">
-        <v>0.8956028922224846</v>
+        <v>0.9910360179368638</v>
       </c>
       <c r="J11">
-        <v>0.2411025667857274</v>
+        <v>0.1575712757594658</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3860490752671111</v>
+        <v>1.231287276134942</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.161437988482703</v>
+        <v>2.28119246360427</v>
       </c>
       <c r="C12">
-        <v>2.350990916990668</v>
+        <v>0.8365595230486065</v>
       </c>
       <c r="D12">
-        <v>0.8924540678666233</v>
+        <v>0.718594789552327</v>
       </c>
       <c r="E12">
-        <v>0.4069974081183148</v>
+        <v>0.2976795171883495</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.608164941540281</v>
+        <v>1.778213190359565</v>
       </c>
       <c r="H12">
-        <v>1.340760520006825</v>
+        <v>1.433792645245006</v>
       </c>
       <c r="I12">
-        <v>0.9145533968277988</v>
+        <v>0.9926267418299943</v>
       </c>
       <c r="J12">
-        <v>0.2475811916694539</v>
+        <v>0.1587832215649883</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3733452463054299</v>
+        <v>1.22630113180536</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.125480290089911</v>
+        <v>2.272416203065745</v>
       </c>
       <c r="C13">
-        <v>2.336958633024096</v>
+        <v>0.8332733995184753</v>
       </c>
       <c r="D13">
-        <v>0.8877370433750116</v>
+        <v>0.7177606040892215</v>
       </c>
       <c r="E13">
-        <v>0.4047780515722366</v>
+        <v>0.2972770003577949</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.593669078850212</v>
+        <v>1.775877820562698</v>
       </c>
       <c r="H13">
-        <v>1.334537227992399</v>
+        <v>1.433081546149083</v>
       </c>
       <c r="I13">
-        <v>0.9104405286476265</v>
+        <v>0.9922793826429199</v>
       </c>
       <c r="J13">
-        <v>0.2461804414039648</v>
+        <v>0.1585215879490676</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3760656710420687</v>
+        <v>1.227371002218768</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.008527724654357</v>
+        <v>2.24381452328879</v>
       </c>
       <c r="C14">
-        <v>2.291344472874471</v>
+        <v>0.8225649659490841</v>
       </c>
       <c r="D14">
-        <v>0.8724228784944046</v>
+        <v>0.7150499342609749</v>
       </c>
       <c r="E14">
-        <v>0.3975729537503483</v>
+        <v>0.295968522339912</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.5466883993235</v>
+        <v>1.768295757215185</v>
       </c>
       <c r="H14">
-        <v>1.314386155892862</v>
+        <v>1.430785285127598</v>
       </c>
       <c r="I14">
-        <v>0.897147893020616</v>
+        <v>0.9911647403515076</v>
       </c>
       <c r="J14">
-        <v>0.2416331335530373</v>
+        <v>0.1576707043436016</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3849969557457915</v>
+        <v>1.230875267864832</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.937126029620345</v>
+        <v>2.226310221741471</v>
       </c>
       <c r="C15">
-        <v>2.263515652359388</v>
+        <v>0.8160121270581726</v>
       </c>
       <c r="D15">
-        <v>0.8630944903568718</v>
+        <v>0.713397087703953</v>
       </c>
       <c r="E15">
-        <v>0.3931842240764851</v>
+        <v>0.2951702788355703</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.518132244600991</v>
+        <v>1.763677675201222</v>
       </c>
       <c r="H15">
-        <v>1.302151861918361</v>
+        <v>1.429396252979558</v>
       </c>
       <c r="I15">
-        <v>0.8890964487018209</v>
+        <v>0.9904959367169894</v>
       </c>
       <c r="J15">
-        <v>0.2388634455868299</v>
+        <v>0.1571513250408145</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3905126481254717</v>
+        <v>1.233033394005462</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.531332319754597</v>
+        <v>2.126230133618265</v>
       </c>
       <c r="C16">
-        <v>2.105637298260319</v>
+        <v>0.7785577327544502</v>
       </c>
       <c r="D16">
-        <v>0.8103902894862074</v>
+        <v>0.7040402591664758</v>
       </c>
       <c r="E16">
-        <v>0.3683901590488219</v>
+        <v>0.2906453501989716</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.357689199213979</v>
+        <v>1.737612450368971</v>
       </c>
       <c r="H16">
-        <v>1.233623884210232</v>
+        <v>1.421703732531057</v>
       </c>
       <c r="I16">
-        <v>0.8442760776647376</v>
+        <v>0.9868763895463104</v>
       </c>
       <c r="J16">
-        <v>0.2232178864059762</v>
+        <v>0.1542026400863392</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4227865799568988</v>
+        <v>1.245579218212794</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.285176708230381</v>
+        <v>2.065038674196501</v>
       </c>
       <c r="C17">
-        <v>2.010099446575055</v>
+        <v>0.7556668275727247</v>
       </c>
       <c r="D17">
-        <v>0.7786847771899659</v>
+        <v>0.6984024677050797</v>
       </c>
       <c r="E17">
-        <v>0.3534756675749904</v>
+        <v>0.2879134632094846</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.261927997323937</v>
+        <v>1.721976614360784</v>
       </c>
       <c r="H17">
-        <v>1.19290674454831</v>
+        <v>1.417222551740167</v>
       </c>
       <c r="I17">
-        <v>0.8178843607926467</v>
+        <v>0.9848453359952885</v>
       </c>
       <c r="J17">
-        <v>0.2138076631538581</v>
+        <v>0.1524183010471347</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.443154464558484</v>
+        <v>1.25343463605319</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.144531357536948</v>
+        <v>2.029917785779617</v>
       </c>
       <c r="C18">
-        <v>1.955590692779936</v>
+        <v>0.742531990154589</v>
       </c>
       <c r="D18">
-        <v>0.7606619818519675</v>
+        <v>0.6951972563643096</v>
       </c>
       <c r="E18">
-        <v>0.3449977896012015</v>
+        <v>0.286358271154306</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.207756488407796</v>
+        <v>1.713112793468355</v>
       </c>
       <c r="H18">
-        <v>1.169939904856477</v>
+        <v>1.414732246762554</v>
       </c>
       <c r="I18">
-        <v>0.8030828259184446</v>
+        <v>0.9837464521746142</v>
       </c>
       <c r="J18">
-        <v>0.2084588388533746</v>
+        <v>0.1514009895638111</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4550691157389095</v>
+        <v>1.25801116599125</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.097064325525821</v>
+        <v>2.018039278181789</v>
       </c>
       <c r="C19">
-        <v>1.937207174415164</v>
+        <v>0.7380901298934077</v>
       </c>
       <c r="D19">
-        <v>0.7545948907062154</v>
+        <v>0.6941184571871872</v>
       </c>
       <c r="E19">
-        <v>0.3421438565824815</v>
+        <v>0.2858344726539173</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.18956439508483</v>
+        <v>1.710133829645457</v>
       </c>
       <c r="H19">
-        <v>1.162238443094338</v>
+        <v>1.413904013571198</v>
       </c>
       <c r="I19">
-        <v>0.7981337722134327</v>
+        <v>0.9833862684046082</v>
       </c>
       <c r="J19">
-        <v>0.2066582766884011</v>
+        <v>0.1510580860670672</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4591366354281057</v>
+        <v>1.259570702766053</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.311281545881457</v>
+        <v>2.071544859005144</v>
       </c>
       <c r="C20">
-        <v>2.020222962807907</v>
+        <v>0.7581003474140857</v>
       </c>
       <c r="D20">
-        <v>0.7820374309027329</v>
+        <v>0.6989987370621407</v>
       </c>
       <c r="E20">
-        <v>0.3550527571567343</v>
+        <v>0.2882026079197786</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.272026429154437</v>
+        <v>1.723627657057534</v>
       </c>
       <c r="H20">
-        <v>1.197193586659267</v>
+        <v>1.417690554769734</v>
       </c>
       <c r="I20">
-        <v>0.8206540563559201</v>
+        <v>0.9850543638409519</v>
       </c>
       <c r="J20">
-        <v>0.2148026903317657</v>
+        <v>0.152607315302518</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4409654065355819</v>
+        <v>1.252592376841394</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.042829976123357</v>
+        <v>2.252212391105616</v>
       </c>
       <c r="C21">
-        <v>2.304719026368048</v>
+        <v>0.8257089602074643</v>
       </c>
       <c r="D21">
-        <v>0.8769100794162341</v>
+        <v>0.7158445565671627</v>
       </c>
       <c r="E21">
-        <v>0.3996840867345313</v>
+        <v>0.2963521791305581</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.560441279132789</v>
+        <v>1.770517339184124</v>
       </c>
       <c r="H21">
-        <v>1.320282123687065</v>
+        <v>1.431456105287651</v>
       </c>
       <c r="I21">
-        <v>0.9010331904529068</v>
+        <v>0.9914892296624203</v>
       </c>
       <c r="J21">
-        <v>0.2429654885810635</v>
+        <v>0.1579202517410891</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3823641781557217</v>
+        <v>1.229843549034509</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.531223119108972</v>
+        <v>2.37096197558202</v>
       </c>
       <c r="C22">
-        <v>2.495515217201785</v>
+        <v>0.8701802237956713</v>
       </c>
       <c r="D22">
-        <v>0.9411944791067981</v>
+        <v>0.7271904317157123</v>
       </c>
       <c r="E22">
-        <v>0.4299317066918746</v>
+        <v>0.3018231255369415</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.758624563704473</v>
+        <v>1.802330962337066</v>
       </c>
       <c r="H22">
-        <v>1.405505745554706</v>
+        <v>1.441234904007842</v>
       </c>
       <c r="I22">
-        <v>0.9575483156345115</v>
+        <v>0.9963182440432661</v>
       </c>
       <c r="J22">
-        <v>0.2620580900381668</v>
+        <v>0.1614735285947404</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3460538383415646</v>
+        <v>1.215497535000684</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.269515266933354</v>
+        <v>2.307521186695794</v>
       </c>
       <c r="C23">
-        <v>2.393190020472503</v>
+        <v>0.8464187162177268</v>
       </c>
       <c r="D23">
-        <v>0.9066560832392554</v>
+        <v>0.7211040555385182</v>
       </c>
       <c r="E23">
-        <v>0.4136796377533898</v>
+        <v>0.2988898762844272</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.651879465503612</v>
+        <v>1.785243766233435</v>
       </c>
       <c r="H23">
-        <v>1.359543658646857</v>
+        <v>1.435943902006812</v>
       </c>
       <c r="I23">
-        <v>0.9269883550708187</v>
+        <v>0.9936835625993155</v>
       </c>
       <c r="J23">
-        <v>0.2517988761226349</v>
+        <v>0.1595696262561574</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3652402160203918</v>
+        <v>1.223106418200292</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.299476850677195</v>
+        <v>2.068603229475116</v>
       </c>
       <c r="C24">
-        <v>2.015644831258442</v>
+        <v>0.7570000738858198</v>
       </c>
       <c r="D24">
-        <v>0.780521061229706</v>
+        <v>0.6987290514845483</v>
       </c>
       <c r="E24">
-        <v>0.3543394558018917</v>
+        <v>0.2880718376228231</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.267458195024858</v>
+        <v>1.722880830138337</v>
       </c>
       <c r="H24">
-        <v>1.195254136527637</v>
+        <v>1.417478702842232</v>
       </c>
       <c r="I24">
-        <v>0.8194007265873324</v>
+        <v>0.9849596481355931</v>
       </c>
       <c r="J24">
-        <v>0.2143526490553711</v>
+        <v>0.1525218354020836</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4419544437374983</v>
+        <v>1.252972974295447</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.288131532728016</v>
+        <v>1.813747498050532</v>
       </c>
       <c r="C25">
-        <v>1.62491815989506</v>
+        <v>0.6617448455531303</v>
       </c>
       <c r="D25">
-        <v>0.6524627033532795</v>
+        <v>0.6760262026383259</v>
       </c>
       <c r="E25">
-        <v>0.2940989095223401</v>
+        <v>0.2770182822583962</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.8868317815556</v>
+        <v>1.660554111595957</v>
       </c>
       <c r="H25">
-        <v>1.035030754475656</v>
+        <v>1.400889336373922</v>
       </c>
       <c r="I25">
-        <v>0.7175541778615724</v>
+        <v>0.9781962888247904</v>
       </c>
       <c r="J25">
-        <v>0.1763460452753733</v>
+        <v>0.14526294131079</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5322447528390684</v>
+        <v>1.28741655399243</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_79/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_79/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.628473391421153</v>
+        <v>3.564844953401177</v>
       </c>
       <c r="C2">
-        <v>0.5925921763866313</v>
+        <v>1.34731423222064</v>
       </c>
       <c r="D2">
-        <v>0.6605252660765188</v>
+        <v>0.5633611216883594</v>
       </c>
       <c r="E2">
-        <v>0.2694002117863263</v>
+        <v>0.2521695872929683</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.618817807492434</v>
+        <v>1.628722020468899</v>
       </c>
       <c r="H2">
-        <v>1.3914997392651</v>
+        <v>0.9283498305550495</v>
       </c>
       <c r="I2">
-        <v>0.9754574343271756</v>
+        <v>0.6520542996567329</v>
       </c>
       <c r="J2">
-        <v>0.1402073362942957</v>
+        <v>0.1498834981993085</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.314684938046567</v>
+        <v>0.6042912504221523</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.504356375888165</v>
+        <v>3.084338984802855</v>
       </c>
       <c r="C3">
-        <v>0.5463184728849342</v>
+        <v>1.163759572232095</v>
       </c>
       <c r="D3">
-        <v>0.6507702766687657</v>
+        <v>0.5055061288051945</v>
       </c>
       <c r="E3">
-        <v>0.2645580228302933</v>
+        <v>0.2249274840540636</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.593077908450823</v>
+        <v>1.46463562222354</v>
       </c>
       <c r="H3">
-        <v>1.386880558471887</v>
+        <v>0.861708158323836</v>
       </c>
       <c r="I3">
-        <v>0.9749819146558849</v>
+        <v>0.6124432939001636</v>
       </c>
       <c r="J3">
-        <v>0.1369585051028821</v>
+        <v>0.132678565437871</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.334350938428487</v>
+        <v>0.6562058103801465</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.428850933360536</v>
+        <v>2.793032666598378</v>
       </c>
       <c r="C4">
-        <v>0.5181917515143937</v>
+        <v>1.05282800411851</v>
       </c>
       <c r="D4">
-        <v>0.6451483806956162</v>
+        <v>0.4710291209907496</v>
       </c>
       <c r="E4">
-        <v>0.2617418316259048</v>
+        <v>0.2086828501677616</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.578514329356182</v>
+        <v>1.368378818480181</v>
       </c>
       <c r="H4">
-        <v>1.384899098715238</v>
+        <v>0.8231832908423939</v>
       </c>
       <c r="I4">
-        <v>0.9753654369932434</v>
+        <v>0.5901518812963147</v>
       </c>
       <c r="J4">
-        <v>0.1350503228013196</v>
+        <v>0.1224114904921407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.347009504765835</v>
+        <v>0.6894942737913787</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.398257842371095</v>
+        <v>2.675120908111751</v>
       </c>
       <c r="C5">
-        <v>0.5068009986992479</v>
+        <v>1.008003113522022</v>
       </c>
       <c r="D5">
-        <v>0.6429496166272202</v>
+        <v>0.4572155563521392</v>
       </c>
       <c r="E5">
-        <v>0.2606335290419679</v>
+        <v>0.202171319719497</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.572889633524113</v>
+        <v>1.330168677636976</v>
       </c>
       <c r="H5">
-        <v>1.384305833629156</v>
+        <v>0.8080326154080524</v>
       </c>
       <c r="I5">
-        <v>0.9756908265652768</v>
+        <v>0.5815343024562196</v>
       </c>
       <c r="J5">
-        <v>0.134294394602442</v>
+        <v>0.1182938311361426</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.352314462717342</v>
+        <v>0.7033997519633954</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.393188490800583</v>
+        <v>2.655586104604367</v>
       </c>
       <c r="C6">
-        <v>0.504913848392448</v>
+        <v>1.000581174781814</v>
       </c>
       <c r="D6">
-        <v>0.6425900750007543</v>
+        <v>0.4549353394716888</v>
       </c>
       <c r="E6">
-        <v>0.2604518668217537</v>
+        <v>0.201096268336002</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.571974328982606</v>
+        <v>1.323882071137405</v>
       </c>
       <c r="H6">
-        <v>1.384220238026984</v>
+        <v>0.8055485140609733</v>
       </c>
       <c r="I6">
-        <v>0.9757550485303526</v>
+        <v>0.5801303080777274</v>
       </c>
       <c r="J6">
-        <v>0.1341701790890042</v>
+        <v>0.1176138675931</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.353204187278902</v>
+        <v>0.7057288746082069</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.428437632653356</v>
+        <v>2.791439411699571</v>
       </c>
       <c r="C7">
-        <v>0.5180378447853968</v>
+        <v>1.05222202043268</v>
       </c>
       <c r="D7">
-        <v>0.6451183543991306</v>
+        <v>0.4708419044425796</v>
       </c>
       <c r="E7">
-        <v>0.2617267256586473</v>
+        <v>0.2085946112192829</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.578437219798644</v>
+        <v>1.367859536506245</v>
       </c>
       <c r="H7">
-        <v>1.384890231451749</v>
+        <v>0.8229768097397141</v>
       </c>
       <c r="I7">
-        <v>0.9753691416388719</v>
+        <v>0.5900338289237652</v>
       </c>
       <c r="J7">
-        <v>0.1350400404824512</v>
+        <v>0.1223557005675602</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.347080456500355</v>
+        <v>0.6896804496112272</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.585531447687913</v>
+        <v>3.398305388323649</v>
       </c>
       <c r="C8">
-        <v>0.5765773148849576</v>
+        <v>1.283615893016247</v>
       </c>
       <c r="D8">
-        <v>0.6570852661189406</v>
+        <v>0.5431785740437078</v>
       </c>
       <c r="E8">
-        <v>0.2676979642985842</v>
+        <v>0.2426682800581617</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.609683976118077</v>
+        <v>1.57114040776645</v>
       </c>
       <c r="H8">
-        <v>1.389729195255029</v>
+        <v>0.9048414463412371</v>
       </c>
       <c r="I8">
-        <v>0.9751528158736349</v>
+        <v>0.6379473682478221</v>
       </c>
       <c r="J8">
-        <v>0.1390690959313972</v>
+        <v>0.1438843431383248</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.321344505696145</v>
+        <v>0.6218886945146256</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.899222039286201</v>
+        <v>4.624953192516955</v>
       </c>
       <c r="C9">
-        <v>0.693676002336133</v>
+        <v>1.754717691484075</v>
       </c>
       <c r="D9">
-        <v>0.6834838731692514</v>
+        <v>0.6946904603505857</v>
       </c>
       <c r="E9">
-        <v>0.2806602570430812</v>
+        <v>0.3139646454301754</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.680897328382883</v>
+        <v>2.011171961298061</v>
       </c>
       <c r="H9">
-        <v>1.406036198120773</v>
+        <v>1.087045862528925</v>
       </c>
       <c r="I9">
-        <v>0.9801240946056708</v>
+        <v>0.7502208573204783</v>
       </c>
       <c r="J9">
-        <v>0.1476628058938587</v>
+        <v>0.188880045890194</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.275517280668474</v>
+        <v>0.5009095243305257</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.133222665511539</v>
+        <v>5.559553488254835</v>
       </c>
       <c r="C10">
-        <v>0.7811740183080929</v>
+        <v>2.116601661254094</v>
       </c>
       <c r="D10">
-        <v>0.7046886589652388</v>
+        <v>0.8140382242527551</v>
       </c>
       <c r="E10">
-        <v>0.2909592655093363</v>
+        <v>0.3701062097978323</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.739414207452</v>
+        <v>2.368744308644636</v>
       </c>
       <c r="H10">
-        <v>1.422226896527576</v>
+        <v>1.23833368861537</v>
       </c>
       <c r="I10">
-        <v>0.9871175613414493</v>
+        <v>0.8473407613511341</v>
       </c>
       <c r="J10">
-        <v>0.1544074671669904</v>
+        <v>0.2243006658880091</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.244690768785377</v>
+        <v>0.4204901780420043</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.240466272806088</v>
+        <v>5.994859779303056</v>
       </c>
       <c r="C11">
-        <v>0.82131148431273</v>
+        <v>2.28601624771909</v>
       </c>
       <c r="D11">
-        <v>0.7147334137535779</v>
+        <v>0.8706359593208504</v>
       </c>
       <c r="E11">
-        <v>0.2958156818574977</v>
+        <v>0.3967322531497075</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.767411088881744</v>
+        <v>2.541214645515652</v>
       </c>
       <c r="H11">
-        <v>1.430518622586789</v>
+        <v>1.312040203405303</v>
       </c>
       <c r="I11">
-        <v>0.9910360179368638</v>
+        <v>0.895602892222513</v>
       </c>
       <c r="J11">
-        <v>0.1575712757594658</v>
+        <v>0.2411025667858269</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.231287276134942</v>
+        <v>0.3860490752671093</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.28119246360427</v>
+        <v>6.161437988482646</v>
       </c>
       <c r="C12">
-        <v>0.8365595230486065</v>
+        <v>2.350990916990384</v>
       </c>
       <c r="D12">
-        <v>0.718594789552327</v>
+        <v>0.8924540678667654</v>
       </c>
       <c r="E12">
-        <v>0.2976795171883495</v>
+        <v>0.4069974081182934</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.778213190359565</v>
+        <v>2.608164941540252</v>
       </c>
       <c r="H12">
-        <v>1.433792645245006</v>
+        <v>1.340760520006626</v>
       </c>
       <c r="I12">
-        <v>0.9926267418299943</v>
+        <v>0.9145533968277846</v>
       </c>
       <c r="J12">
-        <v>0.1587832215649883</v>
+        <v>0.2475811916693544</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.22630113180536</v>
+        <v>0.3733452463054201</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.272416203065745</v>
+        <v>6.125480290090024</v>
       </c>
       <c r="C13">
-        <v>0.8332733995184753</v>
+        <v>2.33695863302404</v>
       </c>
       <c r="D13">
-        <v>0.7177606040892215</v>
+        <v>0.8877370433748695</v>
       </c>
       <c r="E13">
-        <v>0.2972770003577949</v>
+        <v>0.404778051572265</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.775877820562698</v>
+        <v>2.593669078850269</v>
       </c>
       <c r="H13">
-        <v>1.433081546149083</v>
+        <v>1.334537227992314</v>
       </c>
       <c r="I13">
-        <v>0.9922793826429199</v>
+        <v>0.9104405286476265</v>
       </c>
       <c r="J13">
-        <v>0.1585215879490676</v>
+        <v>0.2461804414039506</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.227371002218768</v>
+        <v>0.3760656710420447</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.24381452328879</v>
+        <v>6.008527724654414</v>
       </c>
       <c r="C14">
-        <v>0.8225649659490841</v>
+        <v>2.291344472874414</v>
       </c>
       <c r="D14">
-        <v>0.7150499342609749</v>
+        <v>0.8724228784941772</v>
       </c>
       <c r="E14">
-        <v>0.295968522339912</v>
+        <v>0.3975729537503909</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.768295757215185</v>
+        <v>2.546688399323529</v>
       </c>
       <c r="H14">
-        <v>1.430785285127598</v>
+        <v>1.31438615589289</v>
       </c>
       <c r="I14">
-        <v>0.9911647403515076</v>
+        <v>0.8971478930206302</v>
       </c>
       <c r="J14">
-        <v>0.1576707043436016</v>
+        <v>0.2416331335528525</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.230875267864832</v>
+        <v>0.38499695574578</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.226310221741471</v>
+        <v>5.937126029620231</v>
       </c>
       <c r="C15">
-        <v>0.8160121270581726</v>
+        <v>2.263515652359274</v>
       </c>
       <c r="D15">
-        <v>0.713397087703953</v>
+        <v>0.8630944903567581</v>
       </c>
       <c r="E15">
-        <v>0.2951702788355703</v>
+        <v>0.3931842240765278</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.763677675201222</v>
+        <v>2.518132244600991</v>
       </c>
       <c r="H15">
-        <v>1.429396252979558</v>
+        <v>1.302151861918361</v>
       </c>
       <c r="I15">
-        <v>0.9904959367169894</v>
+        <v>0.8890964487018209</v>
       </c>
       <c r="J15">
-        <v>0.1571513250408145</v>
+        <v>0.2388634455868868</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.233033394005462</v>
+        <v>0.3905126481254784</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.126230133618265</v>
+        <v>5.531332319754597</v>
       </c>
       <c r="C16">
-        <v>0.7785577327544502</v>
+        <v>2.105637298259978</v>
       </c>
       <c r="D16">
-        <v>0.7040402591664758</v>
+        <v>0.8103902894860937</v>
       </c>
       <c r="E16">
-        <v>0.2906453501989716</v>
+        <v>0.3683901590487935</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.737612450368971</v>
+        <v>2.357689199214036</v>
       </c>
       <c r="H16">
-        <v>1.421703732531057</v>
+        <v>1.233623884210147</v>
       </c>
       <c r="I16">
-        <v>0.9868763895463104</v>
+        <v>0.8442760776647518</v>
       </c>
       <c r="J16">
-        <v>0.1542026400863392</v>
+        <v>0.2232178864060756</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.245579218212794</v>
+        <v>0.4227865799568917</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.065038674196501</v>
+        <v>5.285176708230324</v>
       </c>
       <c r="C17">
-        <v>0.7556668275727247</v>
+        <v>2.010099446574827</v>
       </c>
       <c r="D17">
-        <v>0.6984024677050797</v>
+        <v>0.7786847771902217</v>
       </c>
       <c r="E17">
-        <v>0.2879134632094846</v>
+        <v>0.3534756675750188</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.721976614360784</v>
+        <v>2.261927997323937</v>
       </c>
       <c r="H17">
-        <v>1.417222551740167</v>
+        <v>1.192906744548509</v>
       </c>
       <c r="I17">
-        <v>0.9848453359952885</v>
+        <v>0.8178843607926396</v>
       </c>
       <c r="J17">
-        <v>0.1524183010471347</v>
+        <v>0.213807663153716</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.25343463605319</v>
+        <v>0.4431544645584293</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.029917785779617</v>
+        <v>5.144531357536948</v>
       </c>
       <c r="C18">
-        <v>0.742531990154589</v>
+        <v>1.955590692779936</v>
       </c>
       <c r="D18">
-        <v>0.6951972563643096</v>
+        <v>0.7606619818519107</v>
       </c>
       <c r="E18">
-        <v>0.286358271154306</v>
+        <v>0.3449977896012157</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.713112793468355</v>
+        <v>2.20775648840791</v>
       </c>
       <c r="H18">
-        <v>1.414732246762554</v>
+        <v>1.169939904856363</v>
       </c>
       <c r="I18">
-        <v>0.9837464521746142</v>
+        <v>0.8030828259184375</v>
       </c>
       <c r="J18">
-        <v>0.1514009895638111</v>
+        <v>0.2084588388534314</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.25801116599125</v>
+        <v>0.4550691157389024</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.018039278181789</v>
+        <v>5.097064325525821</v>
       </c>
       <c r="C19">
-        <v>0.7380901298934077</v>
+        <v>1.937207174415278</v>
       </c>
       <c r="D19">
-        <v>0.6941184571871872</v>
+        <v>0.7545948907061586</v>
       </c>
       <c r="E19">
-        <v>0.2858344726539173</v>
+        <v>0.3421438565824246</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.710133829645457</v>
+        <v>2.189564395084801</v>
       </c>
       <c r="H19">
-        <v>1.413904013571198</v>
+        <v>1.162238443094367</v>
       </c>
       <c r="I19">
-        <v>0.9833862684046082</v>
+        <v>0.7981337722134469</v>
       </c>
       <c r="J19">
-        <v>0.1510580860670672</v>
+        <v>0.2066582766882163</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.259570702766053</v>
+        <v>0.4591366354281647</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.071544859005144</v>
+        <v>5.311281545881627</v>
       </c>
       <c r="C20">
-        <v>0.7581003474140857</v>
+        <v>2.02022296280802</v>
       </c>
       <c r="D20">
-        <v>0.6989987370621407</v>
+        <v>0.782037430902875</v>
       </c>
       <c r="E20">
-        <v>0.2882026079197786</v>
+        <v>0.3550527571567414</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.723627657057534</v>
+        <v>2.272026429154579</v>
       </c>
       <c r="H20">
-        <v>1.417690554769734</v>
+        <v>1.197193586659267</v>
       </c>
       <c r="I20">
-        <v>0.9850543638409519</v>
+        <v>0.820654056355913</v>
       </c>
       <c r="J20">
-        <v>0.152607315302518</v>
+        <v>0.214802690331851</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.252592376841394</v>
+        <v>0.4409654065355815</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.252212391105616</v>
+        <v>6.042829976123414</v>
       </c>
       <c r="C21">
-        <v>0.8257089602074643</v>
+        <v>2.304719026368218</v>
       </c>
       <c r="D21">
-        <v>0.7158445565671627</v>
+        <v>0.8769100794163762</v>
       </c>
       <c r="E21">
-        <v>0.2963521791305581</v>
+        <v>0.3996840867345739</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.770517339184124</v>
+        <v>2.56044127913276</v>
       </c>
       <c r="H21">
-        <v>1.431456105287651</v>
+        <v>1.320282123687036</v>
       </c>
       <c r="I21">
-        <v>0.9914892296624203</v>
+        <v>0.9010331904529068</v>
       </c>
       <c r="J21">
-        <v>0.1579202517410891</v>
+        <v>0.2429654885809498</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.229843549034509</v>
+        <v>0.3823641781557319</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.37096197558202</v>
+        <v>6.531223119108915</v>
       </c>
       <c r="C22">
-        <v>0.8701802237956713</v>
+        <v>2.495515217201842</v>
       </c>
       <c r="D22">
-        <v>0.7271904317157123</v>
+        <v>0.9411944791066844</v>
       </c>
       <c r="E22">
-        <v>0.3018231255369415</v>
+        <v>0.4299317066918675</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.802330962337066</v>
+        <v>2.758624563704615</v>
       </c>
       <c r="H22">
-        <v>1.441234904007842</v>
+        <v>1.405505745554706</v>
       </c>
       <c r="I22">
-        <v>0.9963182440432661</v>
+        <v>0.9575483156345257</v>
       </c>
       <c r="J22">
-        <v>0.1614735285947404</v>
+        <v>0.2620580900380105</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.215497535000684</v>
+        <v>0.3460538383416107</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.307521186695794</v>
+        <v>6.269515266933524</v>
       </c>
       <c r="C23">
-        <v>0.8464187162177268</v>
+        <v>2.393190020472559</v>
       </c>
       <c r="D23">
-        <v>0.7211040555385182</v>
+        <v>0.9066560832392838</v>
       </c>
       <c r="E23">
-        <v>0.2988898762844272</v>
+        <v>0.41367963775334</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.785243766233435</v>
+        <v>2.651879465503725</v>
       </c>
       <c r="H23">
-        <v>1.435943902006812</v>
+        <v>1.359543658646771</v>
       </c>
       <c r="I23">
-        <v>0.9936835625993155</v>
+        <v>0.9269883550708187</v>
       </c>
       <c r="J23">
-        <v>0.1595696262561574</v>
+        <v>0.251798876122578</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.223106418200292</v>
+        <v>0.3652402160204473</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.068603229475116</v>
+        <v>5.299476850677252</v>
       </c>
       <c r="C24">
-        <v>0.7570000738858198</v>
+        <v>2.015644831258783</v>
       </c>
       <c r="D24">
-        <v>0.6987290514845483</v>
+        <v>0.7805210612296776</v>
       </c>
       <c r="E24">
-        <v>0.2880718376228231</v>
+        <v>0.3543394558019628</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.722880830138337</v>
+        <v>2.267458195025</v>
       </c>
       <c r="H24">
-        <v>1.417478702842232</v>
+        <v>1.195254136527609</v>
       </c>
       <c r="I24">
-        <v>0.9849596481355931</v>
+        <v>0.8194007265873182</v>
       </c>
       <c r="J24">
-        <v>0.1525218354020836</v>
+        <v>0.2143526490552716</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.252972974295447</v>
+        <v>0.4419544437374792</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.813747498050532</v>
+        <v>4.288131532728073</v>
       </c>
       <c r="C25">
-        <v>0.6617448455531303</v>
+        <v>1.62491815989523</v>
       </c>
       <c r="D25">
-        <v>0.6760262026383259</v>
+        <v>0.6524627033533079</v>
       </c>
       <c r="E25">
-        <v>0.2770182822583962</v>
+        <v>0.2940989095223472</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.660554111595957</v>
+        <v>1.8868317815556</v>
       </c>
       <c r="H25">
-        <v>1.400889336373922</v>
+        <v>1.03503075447577</v>
       </c>
       <c r="I25">
-        <v>0.9781962888247904</v>
+        <v>0.7175541778615866</v>
       </c>
       <c r="J25">
-        <v>0.14526294131079</v>
+        <v>0.1763460452752881</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.28741655399243</v>
+        <v>0.5322447528390613</v>
       </c>
       <c r="O25">
         <v>0</v>
